--- a/files/CEO_tracking_list.xlsx
+++ b/files/CEO_tracking_list.xlsx
@@ -1943,15 +1943,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reporter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>week</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1962,7 +1962,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2280,7 +2280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2632,9 +2632,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2969,14 +2966,14 @@
   <dimension ref="A1:Q228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="21" style="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="121" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="119" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="120" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="118" customWidth="1"/>
     <col min="4" max="4" width="68.140625" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.7109375" style="62" customWidth="1"/>
     <col min="6" max="6" width="46.85546875" style="62" customWidth="1"/>
@@ -2985,27 +2982,27 @@
     <col min="13" max="16384" width="8.85546875" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="118" t="s">
-        <v>594</v>
+      <c r="C1" s="2" t="s">
+        <v>596</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
+      <c r="E1" s="2" t="s">
+        <v>594</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>596</v>
+      <c r="G1" s="2" t="s">
+        <v>595</v>
       </c>
       <c r="H1" s="62" t="s">
         <v>3</v>
@@ -3038,7 +3035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="24"/>
       <c r="B2" s="24" t="s">
         <v>11</v>
@@ -3057,11 +3054,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="119" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="40">
@@ -3078,7 +3075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1">
       <c r="C4" s="7">
         <v>43846</v>
       </c>
@@ -3093,7 +3090,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="C5" s="7">
         <v>43853</v>
       </c>
@@ -3108,7 +3105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="C6" s="10">
         <v>43860</v>
       </c>
@@ -3123,7 +3120,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="45" t="s">
         <v>27</v>
       </c>
@@ -3150,7 +3147,7 @@
       <c r="N7" s="79"/>
       <c r="O7" s="79"/>
     </row>
-    <row r="8" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="16.5" customHeight="1" thickBot="1">
       <c r="A8" s="60" t="s">
         <v>15</v>
       </c>
@@ -3177,9 +3174,9 @@
       <c r="N8" s="79"/>
       <c r="O8" s="79"/>
     </row>
-    <row r="9" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
       <c r="A9" s="65"/>
-      <c r="B9" s="122"/>
+      <c r="B9" s="121"/>
       <c r="C9" s="10">
         <v>43881</v>
       </c>
@@ -3200,7 +3197,7 @@
       <c r="N9" s="79"/>
       <c r="O9" s="79"/>
     </row>
-    <row r="10" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
       <c r="A10" s="66" t="s">
         <v>27</v>
       </c>
@@ -3227,7 +3224,7 @@
       <c r="N10" s="79"/>
       <c r="O10" s="79"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="60" t="s">
         <v>15</v>
       </c>
@@ -3254,11 +3251,11 @@
       <c r="N11" s="79"/>
       <c r="O11" s="79"/>
     </row>
-    <row r="12" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
       <c r="A12" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="119" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="40">
@@ -3283,7 +3280,7 @@
       <c r="N12" s="79"/>
       <c r="O12" s="79"/>
     </row>
-    <row r="13" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
       <c r="A13" s="67" t="s">
         <v>15</v>
       </c>
@@ -3310,7 +3307,7 @@
       <c r="N13" s="79"/>
       <c r="O13" s="79"/>
     </row>
-    <row r="14" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
       <c r="A14" s="68" t="s">
         <v>53</v>
       </c>
@@ -3337,7 +3334,7 @@
       <c r="N14" s="79"/>
       <c r="O14" s="79"/>
     </row>
-    <row r="15" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
       <c r="A15" s="80"/>
       <c r="B15" s="21"/>
       <c r="C15" s="19">
@@ -3360,7 +3357,7 @@
       <c r="N15" s="79"/>
       <c r="O15" s="79"/>
     </row>
-    <row r="16" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
       <c r="A16" s="67" t="s">
         <v>15</v>
       </c>
@@ -3387,11 +3384,11 @@
       <c r="N16" s="79"/>
       <c r="O16" s="79"/>
     </row>
-    <row r="17" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A17" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="119" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="40">
@@ -3410,11 +3407,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A18" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="120" t="s">
+      <c r="B18" s="119" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="40">
@@ -3431,7 +3428,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A19" s="67" t="s">
         <v>15</v>
       </c>
@@ -3452,11 +3449,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A20" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="120" t="s">
+      <c r="B20" s="119" t="s">
         <v>74</v>
       </c>
       <c r="C20" s="40">
@@ -3473,7 +3470,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A21" s="67" t="s">
         <v>15</v>
       </c>
@@ -3494,11 +3491,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A22" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="120" t="s">
+      <c r="B22" s="119" t="s">
         <v>81</v>
       </c>
       <c r="C22" s="40">
@@ -3517,7 +3514,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A23" s="67" t="s">
         <v>15</v>
       </c>
@@ -3538,9 +3535,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A24" s="81"/>
-      <c r="B24" s="123" t="s">
+      <c r="B24" s="122" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="26">
@@ -3557,11 +3554,11 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="124" t="s">
+      <c r="B25" s="123" t="s">
         <v>91</v>
       </c>
       <c r="C25" s="40">
@@ -3576,7 +3573,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="18" customHeight="1" thickBot="1">
       <c r="A26" s="82"/>
       <c r="B26" s="88"/>
       <c r="C26" s="30">
@@ -3591,9 +3588,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A27" s="80"/>
-      <c r="B27" s="125"/>
+      <c r="B27" s="124"/>
       <c r="C27" s="19">
         <v>44007</v>
       </c>
@@ -3608,7 +3605,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A28" s="81" t="s">
         <v>27</v>
       </c>
@@ -3629,7 +3626,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A29" s="83"/>
       <c r="B29" s="86"/>
       <c r="C29" s="10">
@@ -3646,11 +3643,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="18" customHeight="1" thickBot="1">
       <c r="A30" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="120" t="s">
+      <c r="B30" s="119" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="40">
@@ -3667,7 +3664,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A31" s="67" t="s">
         <v>15</v>
       </c>
@@ -3688,7 +3685,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A32" s="67" t="s">
         <v>15</v>
       </c>
@@ -3711,7 +3708,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A33" s="82"/>
       <c r="B33" s="32"/>
       <c r="C33" s="30">
@@ -3726,9 +3723,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A34" s="83"/>
-      <c r="B34" s="126"/>
+      <c r="B34" s="125"/>
       <c r="C34" s="10">
         <v>44056</v>
       </c>
@@ -3743,11 +3740,11 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A35" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="120" t="s">
+      <c r="B35" s="119" t="s">
         <v>81</v>
       </c>
       <c r="C35" s="36">
@@ -3766,7 +3763,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A36" s="67" t="s">
         <v>15</v>
       </c>
@@ -3789,11 +3786,11 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A37" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="120" t="s">
+      <c r="B37" s="119" t="s">
         <v>74</v>
       </c>
       <c r="C37" s="40">
@@ -3810,7 +3807,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A38" s="67" t="s">
         <v>15</v>
       </c>
@@ -3829,9 +3826,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A39" s="84"/>
-      <c r="B39" s="127"/>
+      <c r="B39" s="126"/>
       <c r="C39" s="7">
         <v>44091</v>
       </c>
@@ -3846,7 +3843,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A40" s="69" t="s">
         <v>90</v>
       </c>
@@ -3869,7 +3866,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A41" s="80"/>
       <c r="B41" s="85"/>
       <c r="C41" s="19">
@@ -3886,7 +3883,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A42" s="68" t="s">
         <v>53</v>
       </c>
@@ -3909,11 +3906,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A43" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="120" t="s">
+      <c r="B43" s="119" t="s">
         <v>45</v>
       </c>
       <c r="C43" s="40">
@@ -3932,7 +3929,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A44" s="82"/>
       <c r="B44" s="82"/>
       <c r="C44" s="30">
@@ -3949,7 +3946,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A45" s="68" t="s">
         <v>53</v>
       </c>
@@ -3972,7 +3969,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A46" s="67" t="s">
         <v>15</v>
       </c>
@@ -3993,9 +3990,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A47" s="66"/>
-      <c r="B47" s="120" t="s">
+      <c r="B47" s="119" t="s">
         <v>81</v>
       </c>
       <c r="C47" s="43">
@@ -4014,7 +4011,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A48" s="67" t="s">
         <v>15</v>
       </c>
@@ -4035,11 +4032,11 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A49" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="120" t="s">
+      <c r="B49" s="119" t="s">
         <v>28</v>
       </c>
       <c r="C49" s="40">
@@ -4056,7 +4053,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A50" s="68" t="s">
         <v>53</v>
       </c>
@@ -4079,11 +4076,11 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A51" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="120" t="s">
+      <c r="B51" s="119" t="s">
         <v>16</v>
       </c>
       <c r="C51" s="40">
@@ -4100,7 +4097,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A52" s="68" t="s">
         <v>53</v>
       </c>
@@ -4123,9 +4120,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A53" s="81"/>
-      <c r="B53" s="123" t="s">
+      <c r="B53" s="122" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="26">
@@ -4144,11 +4141,11 @@
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A54" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="120" t="s">
+      <c r="B54" s="119" t="s">
         <v>45</v>
       </c>
       <c r="C54" s="40">
@@ -4165,7 +4162,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A55" s="69" t="s">
         <v>90</v>
       </c>
@@ -4188,7 +4185,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A56" s="83"/>
       <c r="B56" s="86"/>
       <c r="C56" s="10">
@@ -4205,7 +4202,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A57" s="82"/>
       <c r="B57" s="82"/>
       <c r="C57" s="30">
@@ -4223,7 +4220,7 @@
       </c>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A58" s="68" t="s">
         <v>53</v>
       </c>
@@ -4246,7 +4243,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A59" s="89" t="s">
         <v>185</v>
       </c>
@@ -4267,7 +4264,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="16.5" customHeight="1">
       <c r="A60" s="23"/>
       <c r="B60" s="87"/>
       <c r="C60" s="54">
@@ -4284,7 +4281,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="16.5" customHeight="1">
       <c r="A61" s="87"/>
       <c r="B61" s="87"/>
       <c r="C61" s="54">
@@ -4301,7 +4298,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A62" s="81"/>
       <c r="B62" s="97"/>
       <c r="C62" s="26">
@@ -4321,11 +4318,11 @@
         <v>196</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="32.25" customHeight="1" thickBot="1">
       <c r="A63" s="89" t="s">
         <v>185</v>
       </c>
-      <c r="B63" s="128" t="s">
+      <c r="B63" s="127" t="s">
         <v>197</v>
       </c>
       <c r="C63" s="40">
@@ -4347,11 +4344,11 @@
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A64" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B64" s="120" t="s">
+      <c r="B64" s="119" t="s">
         <v>28</v>
       </c>
       <c r="C64" s="40">
@@ -4371,7 +4368,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A65" s="82"/>
       <c r="B65" s="88"/>
       <c r="C65" s="30">
@@ -4381,14 +4378,14 @@
       <c r="E65" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F65" s="137" t="s">
+      <c r="F65" s="136" t="s">
         <v>205</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="18" customHeight="1" thickBot="1">
       <c r="A66" s="89" t="s">
         <v>15</v>
       </c>
@@ -4410,9 +4407,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A67" s="82"/>
-      <c r="B67" s="129"/>
+      <c r="B67" s="128"/>
       <c r="C67" s="30">
         <v>44287</v>
       </c>
@@ -4427,11 +4424,11 @@
         <v>211</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A68" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B68" s="120" t="s">
+      <c r="B68" s="119" t="s">
         <v>28</v>
       </c>
       <c r="C68" s="40">
@@ -4453,7 +4450,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="32.25" customHeight="1" thickBot="1">
       <c r="A69" s="82" t="s">
         <v>185</v>
       </c>
@@ -4476,11 +4473,11 @@
         <v>218</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="32.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="32.65" customHeight="1" thickBot="1">
       <c r="A70" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B70" s="130" t="s">
+      <c r="B70" s="129" t="s">
         <v>105</v>
       </c>
       <c r="C70" s="58">
@@ -4502,11 +4499,11 @@
         <v>222</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="37.5" customHeight="1">
       <c r="A71" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B71" s="131" t="s">
+      <c r="B71" s="130" t="s">
         <v>16</v>
       </c>
       <c r="C71" s="58">
@@ -4528,7 +4525,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="19.5" customHeight="1">
       <c r="A72" s="94"/>
       <c r="B72" s="52"/>
       <c r="C72" s="98">
@@ -4550,7 +4547,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="19.5" customHeight="1">
       <c r="A73" s="113"/>
       <c r="B73" s="116"/>
       <c r="C73" s="114">
@@ -4568,11 +4565,11 @@
       </c>
       <c r="I73" s="105"/>
     </row>
-    <row r="74" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A74" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B74" s="132" t="s">
+      <c r="B74" s="131" t="s">
         <v>41</v>
       </c>
       <c r="C74" s="110">
@@ -4594,11 +4591,11 @@
         <v>238</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A75" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="B75" s="124" t="s">
+      <c r="B75" s="123" t="s">
         <v>91</v>
       </c>
       <c r="C75" s="58">
@@ -4620,7 +4617,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A76" s="68" t="s">
         <v>53</v>
       </c>
@@ -4646,7 +4643,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A77" s="89" t="s">
         <v>185</v>
       </c>
@@ -4672,11 +4669,11 @@
         <v>249</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A78" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B78" s="120" t="s">
+      <c r="B78" s="119" t="s">
         <v>28</v>
       </c>
       <c r="C78" s="58">
@@ -4698,11 +4695,11 @@
         <v>252</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A79" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B79" s="120" t="s">
+      <c r="B79" s="119" t="s">
         <v>74</v>
       </c>
       <c r="C79" s="58">
@@ -4722,7 +4719,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A80" s="89" t="s">
         <v>185</v>
       </c>
@@ -4746,7 +4743,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A81" s="67" t="s">
         <v>15</v>
       </c>
@@ -4770,7 +4767,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A82" s="67" t="s">
         <v>15</v>
       </c>
@@ -4796,7 +4793,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A83" s="82"/>
       <c r="B83" s="88"/>
       <c r="C83" s="57">
@@ -4811,7 +4808,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A84" s="89" t="s">
         <v>185</v>
       </c>
@@ -4835,7 +4832,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A85" s="67" t="s">
         <v>15</v>
       </c>
@@ -4859,11 +4856,11 @@
         <v>275</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A86" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B86" s="120" t="s">
+      <c r="B86" s="119" t="s">
         <v>16</v>
       </c>
       <c r="C86" s="112">
@@ -4883,11 +4880,11 @@
         <v>279</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A87" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B87" s="120" t="s">
+      <c r="B87" s="119" t="s">
         <v>81</v>
       </c>
       <c r="C87" s="58">
@@ -4907,7 +4904,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A88" s="89" t="s">
         <v>185</v>
       </c>
@@ -4933,7 +4930,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A89" s="67" t="s">
         <v>15</v>
       </c>
@@ -4959,7 +4956,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="16.5" customHeight="1">
       <c r="A90" s="77" t="s">
         <v>90</v>
       </c>
@@ -4985,7 +4982,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="16.5" customHeight="1">
       <c r="A91" s="92" t="s">
         <v>53</v>
       </c>
@@ -5011,7 +5008,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="16.5" customHeight="1">
       <c r="A92" s="93"/>
       <c r="B92" s="93"/>
       <c r="C92" s="57">
@@ -5026,7 +5023,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="16.5" customHeight="1">
       <c r="A93" s="76" t="s">
         <v>27</v>
       </c>
@@ -5050,7 +5047,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A94" s="67" t="s">
         <v>15</v>
       </c>
@@ -5073,7 +5070,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="16.5" customHeight="1">
       <c r="A95" s="76" t="s">
         <v>27</v>
       </c>
@@ -5094,7 +5091,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="16.5" customHeight="1">
       <c r="A96" s="76" t="s">
         <v>27</v>
       </c>
@@ -5118,7 +5115,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" ht="16.5" customHeight="1">
       <c r="A97" s="75" t="s">
         <v>15</v>
       </c>
@@ -5144,7 +5141,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" ht="16.5" customHeight="1">
       <c r="A98" s="94" t="s">
         <v>185</v>
       </c>
@@ -5170,7 +5167,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" ht="16.5" customHeight="1">
       <c r="A99" s="93"/>
       <c r="B99" s="93"/>
       <c r="C99" s="57">
@@ -5184,11 +5181,11 @@
         <v>322</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" ht="17.25" customHeight="1" thickBot="1">
       <c r="A100" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B100" s="120" t="s">
+      <c r="B100" s="119" t="s">
         <v>28</v>
       </c>
       <c r="C100" s="40">
@@ -5210,7 +5207,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" ht="16.5" customHeight="1">
       <c r="A101" s="94" t="s">
         <v>185</v>
       </c>
@@ -5236,7 +5233,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" ht="16.5" customHeight="1">
       <c r="A102" s="77" t="s">
         <v>90</v>
       </c>
@@ -5257,7 +5254,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" ht="16.5" customHeight="1">
       <c r="A103" s="76" t="s">
         <v>27</v>
       </c>
@@ -5278,7 +5275,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" ht="16.5" customHeight="1">
       <c r="A104" s="78" t="s">
         <v>53</v>
       </c>
@@ -5299,7 +5296,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" ht="16.5" customHeight="1">
       <c r="A105" s="95"/>
       <c r="B105" s="95"/>
       <c r="C105" s="30">
@@ -5313,7 +5310,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" ht="16.5" customHeight="1">
       <c r="A106" s="94" t="s">
         <v>15</v>
       </c>
@@ -5334,7 +5331,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" ht="16.5" customHeight="1">
       <c r="A107" s="75" t="s">
         <v>185</v>
       </c>
@@ -5355,7 +5352,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" ht="16.5" customHeight="1">
       <c r="A108" s="76" t="s">
         <v>15</v>
       </c>
@@ -5376,7 +5373,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" ht="16.5" customHeight="1">
       <c r="A109" s="75" t="s">
         <v>27</v>
       </c>
@@ -5396,7 +5393,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" ht="16.5" customHeight="1">
       <c r="A110" s="96"/>
       <c r="B110" s="96"/>
       <c r="C110" s="19">
@@ -5414,7 +5411,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" ht="16.5" customHeight="1">
       <c r="A111" s="96"/>
       <c r="B111" s="96"/>
       <c r="C111" s="19">
@@ -5434,7 +5431,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" ht="16.5" customHeight="1">
       <c r="A112" s="76" t="s">
         <v>15</v>
       </c>
@@ -5462,7 +5459,7 @@
       <c r="L112" s="62">
         <v>1</v>
       </c>
-      <c r="N112" s="136" t="s">
+      <c r="N112" s="135" t="s">
         <v>353</v>
       </c>
       <c r="O112" t="s">
@@ -5472,7 +5469,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" ht="16.5" customHeight="1">
       <c r="A113" s="95" t="s">
         <v>27</v>
       </c>
@@ -5513,7 +5510,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" ht="16.5" customHeight="1">
       <c r="A114" s="94"/>
       <c r="B114" s="52" t="s">
         <v>186</v>
@@ -5547,7 +5544,7 @@
       </c>
       <c r="P114"/>
     </row>
-    <row r="115" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" ht="16.5" customHeight="1">
       <c r="A115" s="75" t="s">
         <v>185</v>
       </c>
@@ -5564,7 +5561,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" ht="16.5" customHeight="1">
       <c r="A116" s="76" t="s">
         <v>15</v>
       </c>
@@ -5591,7 +5588,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" ht="16.5" customHeight="1">
       <c r="A117" s="77" t="s">
         <v>90</v>
       </c>
@@ -5610,7 +5607,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" ht="16.5" customHeight="1">
       <c r="A118" s="78" t="s">
         <v>53</v>
       </c>
@@ -5629,7 +5626,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" ht="16.5" customHeight="1">
       <c r="A119" s="76" t="s">
         <v>27</v>
       </c>
@@ -5645,7 +5642,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16">
       <c r="B120" s="52" t="s">
         <v>28</v>
       </c>
@@ -5661,7 +5658,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" ht="16.5" customHeight="1">
       <c r="A121" s="94" t="s">
         <v>185</v>
       </c>
@@ -5680,7 +5677,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" ht="16.5" customHeight="1">
       <c r="A122" s="75" t="s">
         <v>15</v>
       </c>
@@ -5699,7 +5696,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" ht="16.5" customHeight="1">
       <c r="A123" s="76" t="s">
         <v>27</v>
       </c>
@@ -5716,7 +5713,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" ht="16.5" customHeight="1">
       <c r="A124" s="94" t="s">
         <v>185</v>
       </c>
@@ -5735,7 +5732,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" ht="16.5" customHeight="1">
       <c r="A125" s="76" t="s">
         <v>27</v>
       </c>
@@ -5753,7 +5750,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" ht="16.5" customHeight="1">
       <c r="A126" s="76"/>
       <c r="B126" s="76" t="s">
         <v>16</v>
@@ -5770,7 +5767,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" ht="16.5" customHeight="1">
       <c r="A127" s="76" t="s">
         <v>27</v>
       </c>
@@ -5787,7 +5784,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" ht="16.5" customHeight="1">
       <c r="A128" s="77" t="s">
         <v>90</v>
       </c>
@@ -5806,7 +5803,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="16.5" customHeight="1">
       <c r="A129" s="78" t="s">
         <v>53</v>
       </c>
@@ -5825,7 +5822,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="16.5" customHeight="1">
       <c r="A130" s="95"/>
       <c r="B130" s="95" t="s">
         <v>136</v>
@@ -5842,7 +5839,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10">
       <c r="C131" t="s">
         <v>385</v>
       </c>
@@ -5853,7 +5850,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10">
       <c r="B132" t="s">
         <v>28</v>
       </c>
@@ -5870,7 +5867,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10">
       <c r="B133" t="s">
         <v>41</v>
       </c>
@@ -5884,7 +5881,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10">
       <c r="B134" t="s">
         <v>28</v>
       </c>
@@ -5898,18 +5895,18 @@
         <v>393</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10">
       <c r="C135" t="s">
         <v>394</v>
       </c>
-      <c r="E135" s="133" t="s">
+      <c r="E135" s="132" t="s">
         <v>20</v>
       </c>
       <c r="G135" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10">
       <c r="B136" t="s">
         <v>197</v>
       </c>
@@ -5923,7 +5920,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10">
       <c r="B137" t="s">
         <v>105</v>
       </c>
@@ -5937,7 +5934,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10">
       <c r="B138" t="s">
         <v>81</v>
       </c>
@@ -5951,18 +5948,18 @@
         <v>401</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10">
       <c r="C139" t="s">
         <v>402</v>
       </c>
-      <c r="E139" s="133" t="s">
+      <c r="E139" s="132" t="s">
         <v>20</v>
       </c>
       <c r="G139" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10">
       <c r="B140" t="s">
         <v>186</v>
       </c>
@@ -5976,46 +5973,46 @@
         <v>405</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10">
       <c r="B141" t="s">
         <v>70</v>
       </c>
       <c r="C141" t="s">
         <v>406</v>
       </c>
-      <c r="E141" s="134" t="s">
+      <c r="E141" s="133" t="s">
         <v>142</v>
       </c>
       <c r="G141" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10">
       <c r="B142" t="s">
         <v>91</v>
       </c>
       <c r="C142" t="s">
         <v>408</v>
       </c>
-      <c r="E142" s="135" t="s">
+      <c r="E142" s="134" t="s">
         <v>131</v>
       </c>
       <c r="G142" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10">
       <c r="C143" t="s">
         <v>410</v>
       </c>
-      <c r="E143" s="133" t="s">
+      <c r="E143" s="132" t="s">
         <v>20</v>
       </c>
       <c r="G143" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10">
       <c r="B144" t="s">
         <v>136</v>
       </c>
@@ -6029,7 +6026,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:7">
       <c r="B145" t="s">
         <v>16</v>
       </c>
@@ -6043,7 +6040,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:7">
       <c r="B146" t="s">
         <v>197</v>
       </c>
@@ -6057,18 +6054,18 @@
         <v>417</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:7">
       <c r="C147" t="s">
         <v>418</v>
       </c>
-      <c r="E147" s="133" t="s">
+      <c r="E147" s="132" t="s">
         <v>20</v>
       </c>
       <c r="G147" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:7">
       <c r="B148" t="s">
         <v>105</v>
       </c>
@@ -6082,7 +6079,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:7">
       <c r="B149" t="s">
         <v>186</v>
       </c>
@@ -6099,7 +6096,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:7">
       <c r="B150" t="s">
         <v>70</v>
       </c>
@@ -6113,18 +6110,18 @@
         <v>426</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:7">
       <c r="C151" t="s">
         <v>427</v>
       </c>
-      <c r="E151" s="133" t="s">
+      <c r="E151" s="132" t="s">
         <v>20</v>
       </c>
       <c r="G151" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:7">
       <c r="B152" t="s">
         <v>11</v>
       </c>
@@ -6138,46 +6135,46 @@
         <v>430</v>
       </c>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:7">
       <c r="B153" t="s">
         <v>28</v>
       </c>
       <c r="C153" t="s">
         <v>431</v>
       </c>
-      <c r="E153" s="134" t="s">
+      <c r="E153" s="133" t="s">
         <v>30</v>
       </c>
       <c r="G153" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:7">
       <c r="B154" t="s">
         <v>91</v>
       </c>
       <c r="C154" t="s">
         <v>433</v>
       </c>
-      <c r="E154" s="135" t="s">
+      <c r="E154" s="134" t="s">
         <v>131</v>
       </c>
       <c r="G154" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:7">
       <c r="C155" t="s">
         <v>435</v>
       </c>
-      <c r="E155" s="133" t="s">
+      <c r="E155" s="132" t="s">
         <v>20</v>
       </c>
       <c r="G155" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:7">
       <c r="B156" t="s">
         <v>136</v>
       </c>
@@ -6191,7 +6188,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:7">
       <c r="B157" t="s">
         <v>197</v>
       </c>
@@ -6205,7 +6202,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:7">
       <c r="B158" t="s">
         <v>105</v>
       </c>
@@ -6219,18 +6216,18 @@
         <v>442</v>
       </c>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:7">
       <c r="C159" t="s">
         <v>443</v>
       </c>
-      <c r="E159" s="133" t="s">
+      <c r="E159" s="132" t="s">
         <v>20</v>
       </c>
       <c r="G159" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:7">
       <c r="B160" t="s">
         <v>81</v>
       </c>
@@ -6244,7 +6241,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:7">
       <c r="B161" t="s">
         <v>186</v>
       </c>
@@ -6258,7 +6255,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:7">
       <c r="B162" t="s">
         <v>16</v>
       </c>
@@ -6272,18 +6269,18 @@
         <v>450</v>
       </c>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:7">
       <c r="C163" t="s">
         <v>451</v>
       </c>
-      <c r="E163" s="133" t="s">
+      <c r="E163" s="132" t="s">
         <v>20</v>
       </c>
       <c r="G163" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:7">
       <c r="B164" t="s">
         <v>186</v>
       </c>
@@ -6297,46 +6294,46 @@
         <v>455</v>
       </c>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:7">
       <c r="B165" t="s">
         <v>74</v>
       </c>
       <c r="C165" t="s">
         <v>456</v>
       </c>
-      <c r="E165" s="134" t="s">
+      <c r="E165" s="133" t="s">
         <v>76</v>
       </c>
       <c r="G165" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:7">
       <c r="B166" t="s">
         <v>91</v>
       </c>
       <c r="C166" t="s">
         <v>458</v>
       </c>
-      <c r="E166" s="135" t="s">
+      <c r="E166" s="134" t="s">
         <v>131</v>
       </c>
       <c r="G166" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:7">
       <c r="C167" t="s">
         <v>460</v>
       </c>
-      <c r="E167" s="133" t="s">
+      <c r="E167" s="132" t="s">
         <v>20</v>
       </c>
       <c r="G167" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:7">
       <c r="B168" t="s">
         <v>136</v>
       </c>
@@ -6350,7 +6347,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:7">
       <c r="B169" t="s">
         <v>28</v>
       </c>
@@ -6364,7 +6361,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:7">
       <c r="B170" t="s">
         <v>81</v>
       </c>
@@ -6378,18 +6375,18 @@
         <v>467</v>
       </c>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:7">
       <c r="C171" t="s">
         <v>468</v>
       </c>
-      <c r="E171" s="133" t="s">
+      <c r="E171" s="132" t="s">
         <v>20</v>
       </c>
       <c r="G171" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:7">
       <c r="B172" t="s">
         <v>16</v>
       </c>
@@ -6403,7 +6400,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:7">
       <c r="B173" t="s">
         <v>74</v>
       </c>
@@ -6417,7 +6414,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:7">
       <c r="B174" t="s">
         <v>81</v>
       </c>
@@ -6431,18 +6428,18 @@
         <v>476</v>
       </c>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:7">
       <c r="C175" t="s">
         <v>477</v>
       </c>
-      <c r="E175" s="133" t="s">
+      <c r="E175" s="132" t="s">
         <v>20</v>
       </c>
       <c r="G175" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:7">
       <c r="B176" t="s">
         <v>11</v>
       </c>
@@ -6456,46 +6453,46 @@
         <v>481</v>
       </c>
     </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:10">
       <c r="B177" t="s">
         <v>70</v>
       </c>
       <c r="C177" t="s">
         <v>482</v>
       </c>
-      <c r="E177" s="134" t="s">
+      <c r="E177" s="133" t="s">
         <v>483</v>
       </c>
       <c r="G177" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:10">
       <c r="B178" t="s">
         <v>91</v>
       </c>
       <c r="C178" t="s">
         <v>485</v>
       </c>
-      <c r="E178" s="135" t="s">
+      <c r="E178" s="134" t="s">
         <v>131</v>
       </c>
       <c r="G178" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:10">
       <c r="C179" t="s">
         <v>487</v>
       </c>
-      <c r="E179" s="133" t="s">
+      <c r="E179" s="132" t="s">
         <v>20</v>
       </c>
       <c r="G179" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:10">
       <c r="B180" t="s">
         <v>136</v>
       </c>
@@ -6512,7 +6509,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:10">
       <c r="B181" t="s">
         <v>186</v>
       </c>
@@ -6529,7 +6526,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:10">
       <c r="B182" t="s">
         <v>41</v>
       </c>
@@ -6543,18 +6540,18 @@
         <v>497</v>
       </c>
     </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:10">
       <c r="C183" t="s">
         <v>498</v>
       </c>
-      <c r="E183" s="133" t="s">
+      <c r="E183" s="132" t="s">
         <v>20</v>
       </c>
       <c r="G183" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:10">
       <c r="B184" t="s">
         <v>28</v>
       </c>
@@ -6568,7 +6565,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:10">
       <c r="B185" t="s">
         <v>197</v>
       </c>
@@ -6582,7 +6579,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:10">
       <c r="B186" t="s">
         <v>105</v>
       </c>
@@ -6596,18 +6593,18 @@
         <v>505</v>
       </c>
     </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:10">
       <c r="C187" t="s">
         <v>506</v>
       </c>
-      <c r="E187" s="133" t="s">
+      <c r="E187" s="132" t="s">
         <v>20</v>
       </c>
       <c r="G187" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:10">
       <c r="B188" t="s">
         <v>81</v>
       </c>
@@ -6621,46 +6618,46 @@
         <v>509</v>
       </c>
     </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:10">
       <c r="B189" t="s">
         <v>186</v>
       </c>
       <c r="C189" t="s">
         <v>510</v>
       </c>
-      <c r="E189" s="134" t="s">
+      <c r="E189" s="133" t="s">
         <v>188</v>
       </c>
       <c r="G189" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:10">
       <c r="B190" t="s">
         <v>91</v>
       </c>
       <c r="C190" t="s">
         <v>512</v>
       </c>
-      <c r="E190" s="135" t="s">
+      <c r="E190" s="134" t="s">
         <v>131</v>
       </c>
       <c r="G190" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:10">
       <c r="C191" t="s">
         <v>514</v>
       </c>
-      <c r="E191" s="133" t="s">
+      <c r="E191" s="132" t="s">
         <v>20</v>
       </c>
       <c r="G191" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:10">
       <c r="B192" t="s">
         <v>136</v>
       </c>
@@ -6674,7 +6671,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:7">
       <c r="B193" t="s">
         <v>70</v>
       </c>
@@ -6688,7 +6685,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:7">
       <c r="B194" t="s">
         <v>16</v>
       </c>
@@ -6702,18 +6699,18 @@
         <v>521</v>
       </c>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:7">
       <c r="C195" t="s">
         <v>522</v>
       </c>
-      <c r="E195" s="133" t="s">
+      <c r="E195" s="132" t="s">
         <v>20</v>
       </c>
       <c r="G195" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:7">
       <c r="B196" t="s">
         <v>197</v>
       </c>
@@ -6727,7 +6724,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:7">
       <c r="B197" t="s">
         <v>105</v>
       </c>
@@ -6741,7 +6738,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:7">
       <c r="B198" t="s">
         <v>74</v>
       </c>
@@ -6755,18 +6752,18 @@
         <v>529</v>
       </c>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:7">
       <c r="C199" t="s">
         <v>530</v>
       </c>
-      <c r="E199" s="133" t="s">
+      <c r="E199" s="132" t="s">
         <v>20</v>
       </c>
       <c r="G199" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:7">
       <c r="B200" t="s">
         <v>186</v>
       </c>
@@ -6780,46 +6777,46 @@
         <v>533</v>
       </c>
     </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:7">
       <c r="B201" t="s">
         <v>70</v>
       </c>
       <c r="C201" t="s">
         <v>534</v>
       </c>
-      <c r="E201" s="134" t="s">
+      <c r="E201" s="133" t="s">
         <v>289</v>
       </c>
       <c r="G201" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:7">
       <c r="B202" t="s">
         <v>91</v>
       </c>
       <c r="C202" t="s">
         <v>536</v>
       </c>
-      <c r="E202" s="135" t="s">
+      <c r="E202" s="134" t="s">
         <v>131</v>
       </c>
       <c r="G202" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:7">
       <c r="C203" t="s">
         <v>538</v>
       </c>
-      <c r="E203" s="133" t="s">
+      <c r="E203" s="132" t="s">
         <v>20</v>
       </c>
       <c r="G203" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:7">
       <c r="B204" t="s">
         <v>136</v>
       </c>
@@ -6833,7 +6830,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:7">
       <c r="B205" t="s">
         <v>11</v>
       </c>
@@ -6847,7 +6844,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:7">
       <c r="B206" t="s">
         <v>28</v>
       </c>
@@ -6861,18 +6858,18 @@
         <v>545</v>
       </c>
     </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:7">
       <c r="C207" t="s">
         <v>546</v>
       </c>
-      <c r="E207" s="133" t="s">
+      <c r="E207" s="132" t="s">
         <v>20</v>
       </c>
       <c r="G207" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:7">
       <c r="B208" t="s">
         <v>197</v>
       </c>
@@ -6886,7 +6883,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:7">
       <c r="B209" t="s">
         <v>105</v>
       </c>
@@ -6900,7 +6897,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:7">
       <c r="B210" t="s">
         <v>81</v>
       </c>
@@ -6914,18 +6911,18 @@
         <v>553</v>
       </c>
     </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:7">
       <c r="C211" t="s">
         <v>554</v>
       </c>
-      <c r="E211" s="133" t="s">
+      <c r="E211" s="132" t="s">
         <v>20</v>
       </c>
       <c r="G211" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:7">
       <c r="B212" t="s">
         <v>186</v>
       </c>
@@ -6939,46 +6936,46 @@
         <v>557</v>
       </c>
     </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:7">
       <c r="B213" t="s">
         <v>70</v>
       </c>
       <c r="C213" t="s">
         <v>558</v>
       </c>
-      <c r="E213" s="134" t="s">
+      <c r="E213" s="133" t="s">
         <v>483</v>
       </c>
       <c r="G213" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:7">
       <c r="B214" t="s">
         <v>91</v>
       </c>
       <c r="C214" t="s">
         <v>560</v>
       </c>
-      <c r="E214" s="135" t="s">
+      <c r="E214" s="134" t="s">
         <v>131</v>
       </c>
       <c r="G214" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:7">
       <c r="C215" t="s">
         <v>562</v>
       </c>
-      <c r="E215" s="133" t="s">
+      <c r="E215" s="132" t="s">
         <v>20</v>
       </c>
       <c r="G215" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:7">
       <c r="B216" t="s">
         <v>136</v>
       </c>
@@ -6992,7 +6989,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:7">
       <c r="B217" t="s">
         <v>16</v>
       </c>
@@ -7006,7 +7003,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:7">
       <c r="B218" t="s">
         <v>186</v>
       </c>
@@ -7020,7 +7017,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:7">
       <c r="C219" t="s">
         <v>570</v>
       </c>
@@ -7031,7 +7028,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:7">
       <c r="B220" t="s">
         <v>74</v>
       </c>
@@ -7045,7 +7042,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:7">
       <c r="B221" t="s">
         <v>186</v>
       </c>
@@ -7059,7 +7056,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:7">
       <c r="B222" t="s">
         <v>28</v>
       </c>
@@ -7073,7 +7070,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:7">
       <c r="C223" t="s">
         <v>578</v>
       </c>
@@ -7084,7 +7081,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:7">
       <c r="B224" t="s">
         <v>81</v>
       </c>
@@ -7098,7 +7095,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="225" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:10">
       <c r="B225" t="s">
         <v>16</v>
       </c>
@@ -7112,7 +7109,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:10">
       <c r="B226" t="s">
         <v>91</v>
       </c>
@@ -7126,7 +7123,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:10">
       <c r="C227" t="s">
         <v>586</v>
       </c>
@@ -7137,7 +7134,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:10">
       <c r="B228" t="s">
         <v>136</v>
       </c>

--- a/files/CEO_tracking_list.xlsx
+++ b/files/CEO_tracking_list.xlsx
@@ -2966,7 +2966,7 @@
   <dimension ref="A1:Q228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>

--- a/files/CEO_tracking_list.xlsx
+++ b/files/CEO_tracking_list.xlsx
@@ -1951,7 +1951,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>date</t>
+    <t>reportdate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2966,7 +2966,7 @@
   <dimension ref="A1:Q228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
